--- a/sample_efficiency/visualization/sample_eff_benchmark.xlsx
+++ b/sample_efficiency/visualization/sample_eff_benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\sample_efficiency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\results\sample_efficiency\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2CD5C-4B51-4255-8880-67DB702DA13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30F830-A1A2-4047-A9FB-40CFC7847DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +523,20 @@
         <v>3646.0865337870687</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B11/B10</f>
+        <v>1.1639969488939741</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="0">C11/C10</f>
+        <v>1.3549029367844698</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.1310160427807487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
